--- a/src/excels/meningeal/updates/top_genes_cluster_0.4.xlsx
+++ b/src/excels/meningeal/updates/top_genes_cluster_0.4.xlsx
@@ -7,27 +7,27 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MeV.Vascular.0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MeV.Endothelial.0" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="MeV.1.4.11" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="MeV.1.4.13" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MeV.1.4.15" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MeV.Endothelial.3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="MeV.1.4.2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MeV.1.4.20" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="MeV.Endothelial.4" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="MeV.1.4.21" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="MeV.1.4.4" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="MeV.Vascular.2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MeV.Endothelial.2" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="MeV.1.4.6" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="MeV.1.4.7" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="MeV.1.4.8" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="MeV.Low_Quality.0" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="MeV.2.1" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="MeV.2.8" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="MeV.3.17" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="MeV.Proliferative_Fibr.0" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="MeV.Pericytes.0" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="MeV.4.12" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MeV.Vascular.1" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="MeV.Endothelial.1" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="MeV.4.26" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="MeV.4.30" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="MeV.Fib_CD34.0" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="MeV.SMC.0" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="MeV.4.34" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="MeV.4.4" sheetId="24" state="visible" r:id="rId24"/>

--- a/src/excels/meningeal/updates/top_genes_cluster_0.4.xlsx
+++ b/src/excels/meningeal/updates/top_genes_cluster_0.4.xlsx
@@ -24,13 +24,13 @@
     <sheet name="MeV.3.17" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="MeV.Proliferative_Fibr.0" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="MeV.Pericytes.0" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="MeV.4.12" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MeV.VLMC.1" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="MeV.Endothelial.1" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="MeV.4.26" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="MeV.Fib_CD34.0" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="MeV.SMC.0" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="MeV.4.34" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="MeV.4.4" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="MeV.VLMC.0" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/src/excels/meningeal/updates/top_genes_cluster_0.4.xlsx
+++ b/src/excels/meningeal/updates/top_genes_cluster_0.4.xlsx
@@ -12,8 +12,8 @@
     <sheet name="MeV.1.4.13" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="MeV.Endothelial.3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="MeV.1.4.2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MeV.Endothelial.4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="MeV.1.4.21" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="MeV.Endothelial_Injury.4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="MeV.Immune_doublets.0" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="MeV.1.4.4" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="MeV.Endothelial.2" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="MeV.1.4.6" sheetId="10" state="visible" r:id="rId10"/>
@@ -26,7 +26,7 @@
     <sheet name="MeV.Pericytes.0" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="MeV.VLMC.1" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="MeV.Endothelial.1" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="MeV.4.26" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="MeV.Epithelial_ECad.0" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="MeV.Fib_CD34.0" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="MeV.SMC.0" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="MeV.4.34" sheetId="23" state="visible" r:id="rId23"/>

--- a/src/excels/meningeal/updates/top_genes_cluster_0.4.xlsx
+++ b/src/excels/meningeal/updates/top_genes_cluster_0.4.xlsx
@@ -9,28 +9,29 @@
   <sheets>
     <sheet name="MeV.Endothelial.0" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="MeV.1.4.11" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MeV.1.4.13" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MeV.Endothelial.3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MeV.1.4.2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MeV.Endothelial_Injury.4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="MeV.Immune_doublets.0" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="MeV.1.4.4" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="MeV.Endothelial.2" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="MeV.1.4.6" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="MeV.1.4.7" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="MeV.Low_Quality.0" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="MeV.2.1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="MeV.2.8" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MeV.3.17" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="MeV.Proliferative_Fibr.0" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MeV.Pericytes.0" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="MeV.VLMC.1" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MeV.Endothelial.1" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="MeV.Epithelial_ECad.0" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="MeV.Fib_CD34.0" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="MeV.SMC.0" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="MeV.4.34" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="MeV.VLMC.0" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="MeV.1.4.12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MeV.1.4.13" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MeV.Endothelial.3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MeV.1.4.2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="MeV.Endothelial_Injury.4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="MeV.Immune_doublets.0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="MeV.1.4.4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MeV.Endothelial.2" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="MeV.1.4.6" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="MeV.1.4.7" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="MeV.Low_Quality.0" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="MeV.2.1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MeV.2.8" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="MeV.3.17" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MeV.Proliferative_Fibr.0" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="MeV.Pericytes.0" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MeV.VLMC.1" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="MeV.Endothelial.1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="MeV.Epithelial_ECad.0" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="MeV.Fib_CD34.0" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="MeV.SMC.0" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="MeV.4.34" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="MeV.VLMC.0" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,13 +486,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.65826797485352</v>
+        <v>24.68630599975586</v>
       </c>
       <c r="C2" t="n">
-        <v>5.746859073638916</v>
+        <v>5.773325443267822</v>
       </c>
       <c r="D2" t="n">
-        <v>3.135608740014277e-130</v>
+        <v>1.56822948377045e-130</v>
       </c>
       <c r="E2" t="n">
         <v>0.910394265232975</v>
@@ -504,13 +505,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.08493232727051</v>
+        <v>21.11382293701172</v>
       </c>
       <c r="C3" t="n">
-        <v>5.599452495574951</v>
+        <v>5.625568389892578</v>
       </c>
       <c r="D3" t="n">
-        <v>3.265568592968107e-95</v>
+        <v>1.772707859910938e-95</v>
       </c>
       <c r="E3" t="n">
         <v>0.7885304659498208</v>
@@ -523,13 +524,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.1533317565918</v>
+        <v>20.17012786865234</v>
       </c>
       <c r="C4" t="n">
-        <v>4.868412494659424</v>
+        <v>4.870611190795898</v>
       </c>
       <c r="D4" t="n">
-        <v>5.842932299830736e-87</v>
+        <v>4.161043435978143e-87</v>
       </c>
       <c r="E4" t="n">
         <v>0.7634408602150538</v>
@@ -542,13 +543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.25704383850098</v>
+        <v>24.30417060852051</v>
       </c>
       <c r="C5" t="n">
-        <v>4.514730453491211</v>
+        <v>4.537421226501465</v>
       </c>
       <c r="D5" t="n">
-        <v>2.911614205735104e-126</v>
+        <v>9.254136655594219e-127</v>
       </c>
       <c r="E5" t="n">
         <v>0.942652329749104</v>
@@ -561,13 +562,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.40465354919434</v>
+        <v>24.45771980285645</v>
       </c>
       <c r="C6" t="n">
-        <v>4.485811233520508</v>
+        <v>4.508071422576904</v>
       </c>
       <c r="D6" t="n">
-        <v>1.063368558734602e-127</v>
+        <v>2.90203174931901e-128</v>
       </c>
       <c r="E6" t="n">
         <v>0.974910394265233</v>
@@ -617,96 +618,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Trpm3</t>
+          <t>Slco1c1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.15441703796387</v>
+        <v>16.94911956787109</v>
       </c>
       <c r="C2" t="n">
-        <v>3.619999170303345</v>
+        <v>4.884186267852783</v>
       </c>
       <c r="D2" t="n">
-        <v>6.087596898979295e-62</v>
+        <v>2.916577577426439e-61</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9912663755458515</v>
+        <v>0.6829268292682927</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Il31ra</t>
+          <t>Slco1a4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.17730331420898</v>
+        <v>22.84440231323242</v>
       </c>
       <c r="C3" t="n">
-        <v>3.378145694732666</v>
+        <v>4.405142307281494</v>
       </c>
       <c r="D3" t="n">
-        <v>2.089743436694398e-48</v>
+        <v>1.735986789123751e-111</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6986899563318777</v>
+        <v>0.9471544715447154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Dcdc2a</t>
+          <t>Slc7a5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.466706275939941</v>
+        <v>10.62891387939453</v>
       </c>
       <c r="C4" t="n">
-        <v>2.765967607498169</v>
+        <v>4.070919990539551</v>
       </c>
       <c r="D4" t="n">
-        <v>7.87469875329101e-15</v>
+        <v>4.270928418188617e-24</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4104803493449782</v>
+        <v>0.4390243902439024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cyp26b1</t>
+          <t>Nostrin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.691417694091797</v>
+        <v>9.850622177124023</v>
       </c>
       <c r="C5" t="n">
-        <v>2.715155363082886</v>
+        <v>3.98274040222168</v>
       </c>
       <c r="D5" t="n">
-        <v>1.168967173364277e-15</v>
+        <v>1.095224244319312e-20</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4192139737991266</v>
+        <v>0.4105691056910569</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Col22a1</t>
+          <t>Prom1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.38285732269287</v>
+        <v>10.39366340637207</v>
       </c>
       <c r="C6" t="n">
-        <v>2.682281017303467</v>
+        <v>3.937930822372437</v>
       </c>
       <c r="D6" t="n">
-        <v>3.220855597920444e-32</v>
+        <v>4.815862846041939e-23</v>
       </c>
       <c r="E6" t="n">
-        <v>0.611353711790393</v>
+        <v>0.4308943089430894</v>
       </c>
     </row>
   </sheetData>
@@ -757,92 +758,92 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.11813068389893</v>
+        <v>17.26492691040039</v>
       </c>
       <c r="C2" t="n">
-        <v>2.704210758209229</v>
+        <v>3.643855571746826</v>
       </c>
       <c r="D2" t="n">
-        <v>2.5280882014755e-30</v>
+        <v>1.806106837008812e-62</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9560975609756097</v>
+        <v>0.9912663755458515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Slc7a11</t>
+          <t>Il31ra</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.09408855438232</v>
+        <v>15.1814489364624</v>
       </c>
       <c r="C3" t="n">
-        <v>2.08977746963501</v>
+        <v>3.376112461090088</v>
       </c>
       <c r="D3" t="n">
-        <v>3.719550892816901e-35</v>
+        <v>2.452197077203547e-48</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8634146341463415</v>
+        <v>0.6986899563318777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ranbp3l</t>
+          <t>Dcdc2a</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.80861949920654</v>
+        <v>8.470072746276855</v>
       </c>
       <c r="C4" t="n">
-        <v>2.088848829269409</v>
+        <v>2.757729768753052</v>
       </c>
       <c r="D4" t="n">
-        <v>5.11105861117125e-34</v>
+        <v>7.650394203167707e-15</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8926829268292683</v>
+        <v>0.4104803493449782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Medag</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.799071788787842</v>
+        <v>8.700351715087891</v>
       </c>
       <c r="C5" t="n">
-        <v>2.006201028823853</v>
+        <v>2.716985464096069</v>
       </c>
       <c r="D5" t="n">
-        <v>2.962443462251217e-12</v>
+        <v>1.097657365951246e-15</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4536585365853659</v>
+        <v>0.4192139737991266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Aldh1a2</t>
+          <t>Col22a1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.843450546264648</v>
+        <v>12.39955615997314</v>
       </c>
       <c r="C6" t="n">
-        <v>1.934926271438599</v>
+        <v>2.687824964523315</v>
       </c>
       <c r="D6" t="n">
-        <v>6.648107144410704e-20</v>
+        <v>2.61534791753206e-32</v>
       </c>
       <c r="E6" t="n">
-        <v>0.624390243902439</v>
+        <v>0.611353711790393</v>
       </c>
     </row>
   </sheetData>
@@ -889,96 +890,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Rpl18a</t>
+          <t>Trpm3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.441896438598633</v>
+        <v>12.22635841369629</v>
       </c>
       <c r="C2" t="n">
-        <v>3.616515874862671</v>
+        <v>2.729148864746094</v>
       </c>
       <c r="D2" t="n">
-        <v>2.610368399850763e-14</v>
+        <v>6.711936903204777e-31</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4019607843137255</v>
+        <v>0.9560975609756097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Rpl41</t>
+          <t>Ranbp3l</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.4991512298584</v>
+        <v>12.89632034301758</v>
       </c>
       <c r="C3" t="n">
-        <v>3.578825712203979</v>
+        <v>2.10603666305542</v>
       </c>
       <c r="D3" t="n">
-        <v>1.821744913130043e-22</v>
+        <v>2.466879160583189e-34</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5098039215686274</v>
+        <v>0.8926829268292683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Rplp1</t>
+          <t>Slc7a11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.17677974700928</v>
+        <v>13.03956604003906</v>
       </c>
       <c r="C4" t="n">
-        <v>3.565542221069336</v>
+        <v>2.0783531665802</v>
       </c>
       <c r="D4" t="n">
-        <v>2.159488930405841e-30</v>
+        <v>7.425888279816912e-35</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.8634146341463415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Rps23</t>
+          <t>Medag</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.347916603088379</v>
+        <v>7.80372428894043</v>
       </c>
       <c r="C5" t="n">
-        <v>3.552716732025146</v>
+        <v>2.009799003601074</v>
       </c>
       <c r="D5" t="n">
-        <v>5.378331310690728e-14</v>
+        <v>2.85519262621867e-12</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4019607843137255</v>
+        <v>0.4536585365853659</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fau</t>
+          <t>Aldh1a2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.614615440368652</v>
+        <v>9.759799003601074</v>
       </c>
       <c r="C6" t="n">
-        <v>3.542483329772949</v>
+        <v>1.90752899646759</v>
       </c>
       <c r="D6" t="n">
-        <v>6.37722141974149e-15</v>
+        <v>1.522019734757183e-19</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.624390243902439</v>
       </c>
     </row>
   </sheetData>
@@ -1025,96 +1026,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Ccbe1</t>
+          <t>Rpl18a</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.89297580718994</v>
+        <v>8.461723327636719</v>
       </c>
       <c r="C2" t="n">
-        <v>2.80575966835022</v>
+        <v>3.634722232818604</v>
       </c>
       <c r="D2" t="n">
-        <v>2.602256871614526e-24</v>
+        <v>2.202588431015998e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4892857142857143</v>
+        <v>0.4019607843137255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Slc7a11</t>
+          <t>Rpl41</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.02221870422363</v>
+        <v>10.50026988983154</v>
       </c>
       <c r="C3" t="n">
-        <v>2.500449180603027</v>
+        <v>3.580030679702759</v>
       </c>
       <c r="D3" t="n">
-        <v>2.725683135576888e-68</v>
+        <v>1.800275661234721e-22</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Lama1</t>
+          <t>Rps23</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.742148399353027</v>
+        <v>8.355746269226074</v>
       </c>
       <c r="C4" t="n">
-        <v>2.15324592590332</v>
+        <v>3.565969705581665</v>
       </c>
       <c r="D4" t="n">
-        <v>1.77054384103855e-15</v>
+        <v>4.686185945897644e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4019607843137255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Col4a6</t>
+          <t>Rplp1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.56798934936523</v>
+        <v>12.17930316925049</v>
       </c>
       <c r="C5" t="n">
-        <v>2.095250368118286</v>
+        <v>3.563366651535034</v>
       </c>
       <c r="D5" t="n">
-        <v>6.742839936531968e-23</v>
+        <v>2.093705484313558e-30</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Ltbp1</t>
+          <t>Fau</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.41561031341553</v>
+        <v>8.611340522766113</v>
       </c>
       <c r="C6" t="n">
-        <v>2.053026676177979</v>
+        <v>3.546496152877808</v>
       </c>
       <c r="D6" t="n">
-        <v>1.043389475267456e-26</v>
+        <v>6.562109393644657e-15</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5964285714285714</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1161,96 +1162,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Igf1</t>
+          <t>Ccbe1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.9192943572998</v>
+        <v>10.74264526367188</v>
       </c>
       <c r="C2" t="n">
-        <v>3.102248907089233</v>
+        <v>2.707005023956299</v>
       </c>
       <c r="D2" t="n">
-        <v>8.713595687736554e-68</v>
+        <v>1.219451379652124e-23</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.4892857142857143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Ltbp1</t>
+          <t>Slc7a11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.54691123962402</v>
+        <v>17.96271133422852</v>
       </c>
       <c r="C3" t="n">
-        <v>3.066290855407715</v>
+        <v>2.486213684082031</v>
       </c>
       <c r="D3" t="n">
-        <v>8.806086076480191e-58</v>
+        <v>7.977815620295287e-68</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9214285714285714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Grem2</t>
+          <t>Lama1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.19687938690186</v>
+        <v>8.608819961547852</v>
       </c>
       <c r="C4" t="n">
-        <v>3.006099939346313</v>
+        <v>2.092109441757202</v>
       </c>
       <c r="D4" t="n">
-        <v>8.915358240834985e-22</v>
+        <v>5.277788182782912e-15</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5101010101010101</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Svep1</t>
+          <t>Col4a6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.81777667999268</v>
+        <v>10.52660942077637</v>
       </c>
       <c r="C5" t="n">
-        <v>2.938517808914185</v>
+        <v>2.079169988632202</v>
       </c>
       <c r="D5" t="n">
-        <v>3.201494465720203e-40</v>
+        <v>1.04727916447729e-22</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7121212121212122</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Igfbp2</t>
+          <t>Ltbp1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.20863723754883</v>
+        <v>11.33651924133301</v>
       </c>
       <c r="C6" t="n">
-        <v>2.859538316726685</v>
+        <v>2.029100179672241</v>
       </c>
       <c r="D6" t="n">
-        <v>1.090031497936499e-36</v>
+        <v>2.260390717954911e-26</v>
       </c>
       <c r="E6" t="n">
-        <v>0.696969696969697</v>
+        <v>0.5964285714285714</v>
       </c>
     </row>
   </sheetData>
@@ -1297,96 +1298,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Abca8a</t>
+          <t>Igf1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.08273315429688</v>
+        <v>17.9183349609375</v>
       </c>
       <c r="C2" t="n">
-        <v>4.917680263519287</v>
+        <v>3.092049598693848</v>
       </c>
       <c r="D2" t="n">
-        <v>6.360401288313205e-25</v>
+        <v>8.865119719549452e-68</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Lama1</t>
+          <t>Ltbp1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.74507808685303</v>
+        <v>16.49800491333008</v>
       </c>
       <c r="C3" t="n">
-        <v>4.654157638549805</v>
+        <v>3.040301084518433</v>
       </c>
       <c r="D3" t="n">
-        <v>1.13939738183262e-38</v>
+        <v>1.981494228641063e-57</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Col15a1</t>
+          <t>Grem2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.16091728210449</v>
+        <v>10.15969562530518</v>
       </c>
       <c r="C4" t="n">
-        <v>4.625631332397461</v>
+        <v>2.973413467407227</v>
       </c>
       <c r="D4" t="n">
-        <v>7.740545402201908e-21</v>
+        <v>1.306358055235668e-21</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5101010101010101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cemip</t>
+          <t>Svep1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.08167171478271</v>
+        <v>13.78193855285645</v>
       </c>
       <c r="C5" t="n">
-        <v>4.389645576477051</v>
+        <v>2.91600775718689</v>
       </c>
       <c r="D5" t="n">
-        <v>1.379548823707039e-29</v>
+        <v>5.263196384214766e-40</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7121212121212122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Col13a1</t>
+          <t>Igfbp2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.723116397857666</v>
+        <v>13.24851512908936</v>
       </c>
       <c r="C6" t="n">
-        <v>3.262396574020386</v>
+        <v>2.875304937362671</v>
       </c>
       <c r="D6" t="n">
-        <v>3.974511843450581e-06</v>
+        <v>6.412683480906885e-37</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4111111111111111</v>
+        <v>0.696969696969697</v>
       </c>
     </row>
   </sheetData>
@@ -1433,96 +1434,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Depdc1a</t>
+          <t>Abca8a</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.514955520629883</v>
+        <v>11.0407075881958</v>
       </c>
       <c r="C2" t="n">
-        <v>9.831934928894043</v>
+        <v>4.812708377838135</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005304621144910816</v>
+        <v>1.016249034895986e-24</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Top2a</t>
+          <t>Lama1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.01577091217041</v>
+        <v>13.71305370330811</v>
       </c>
       <c r="C3" t="n">
-        <v>9.268778800964355</v>
+        <v>4.591655254364014</v>
       </c>
       <c r="D3" t="n">
-        <v>1.026872284378051e-05</v>
+        <v>1.772656712304396e-38</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Cenpf</t>
+          <t>Col15a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.130839347839355</v>
+        <v>10.03963470458984</v>
       </c>
       <c r="C4" t="n">
-        <v>8.908038139343262</v>
+        <v>4.365627765655518</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01842557275752444</v>
+        <v>2.666220465059485e-20</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Tpx2</t>
+          <t>Cemip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.880934238433838</v>
+        <v>11.98947715759277</v>
       </c>
       <c r="C5" t="n">
-        <v>8.541200637817383</v>
+        <v>4.291172981262207</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001379262204429101</v>
+        <v>4.216176818475051e-29</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Knl1</t>
+          <t>Col13a1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.25744104385376</v>
+        <v>5.686466217041016</v>
       </c>
       <c r="C6" t="n">
-        <v>8.47708797454834</v>
+        <v>3.199073314666748</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0002775530524128262</v>
+        <v>4.928649590142774e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4111111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -1569,96 +1570,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Abcc9</t>
+          <t>Depdc1a</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.80918884277344</v>
+        <v>4.5152907371521</v>
       </c>
       <c r="C2" t="n">
-        <v>7.07367992401123</v>
+        <v>9.855690002441406</v>
       </c>
       <c r="D2" t="n">
-        <v>8.953627260351002e-68</v>
+        <v>0.005274565380047264</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Slc38a11</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.05405426025391</v>
+        <v>6.01628589630127</v>
       </c>
       <c r="C3" t="n">
-        <v>6.216042995452881</v>
+        <v>9.29255199432373</v>
       </c>
       <c r="D3" t="n">
-        <v>3.78664648275715e-62</v>
+        <v>1.030496687698366e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7513227513227513</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Notch3</t>
+          <t>Cenpf</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.90745735168457</v>
+        <v>4.131274700164795</v>
       </c>
       <c r="C4" t="n">
-        <v>5.961271286010742</v>
+        <v>8.931801795959473</v>
       </c>
       <c r="D4" t="n">
-        <v>1.221552451115988e-84</v>
+        <v>0.01839069801919783</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8783068783068783</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Tbx3os1</t>
+          <t>Knl1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.91768932342529</v>
+        <v>5.257995128631592</v>
       </c>
       <c r="C5" t="n">
-        <v>5.923933029174805</v>
+        <v>8.500860214233398</v>
       </c>
       <c r="D5" t="n">
-        <v>4.538330537068609e-54</v>
+        <v>0.0002767183344433209</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Trpc3</t>
+          <t>Hmmr</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.30741500854492</v>
+        <v>4.133940696716309</v>
       </c>
       <c r="C6" t="n">
-        <v>5.913026332855225</v>
+        <v>8.46733570098877</v>
       </c>
       <c r="D6" t="n">
-        <v>1.372196250017126e-71</v>
+        <v>0.01839069801919783</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.5238095238095238</v>
       </c>
     </row>
   </sheetData>
@@ -1705,96 +1706,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Slc47a1</t>
+          <t>Abcc9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.1564884185791</v>
+        <v>17.81792259216309</v>
       </c>
       <c r="C2" t="n">
-        <v>4.425482273101807</v>
+        <v>7.087331295013428</v>
       </c>
       <c r="D2" t="n">
-        <v>2.136497956067923e-54</v>
+        <v>7.659730698403811e-68</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9910714285714286</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Tbx15</t>
+          <t>Slc38a11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.17175579071045</v>
+        <v>17.0678882598877</v>
       </c>
       <c r="C3" t="n">
-        <v>4.298410892486572</v>
+        <v>6.241199493408203</v>
       </c>
       <c r="D3" t="n">
-        <v>1.539044504916326e-21</v>
+        <v>3.163906860122613e-62</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.7513227513227513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Tspan11</t>
+          <t>Notch3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.02871417999268</v>
+        <v>19.91693878173828</v>
       </c>
       <c r="C4" t="n">
-        <v>4.160501956939697</v>
+        <v>5.95043420791626</v>
       </c>
       <c r="D4" t="n">
-        <v>2.717668346978482e-41</v>
+        <v>1.010888609432314e-84</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8482142857142857</v>
+        <v>0.8783068783068783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Slc4a10</t>
+          <t>Tbx3os1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.71346187591553</v>
+        <v>15.91995525360107</v>
       </c>
       <c r="C5" t="n">
-        <v>4.030983448028564</v>
+        <v>5.90712833404541</v>
       </c>
       <c r="D5" t="n">
-        <v>1.278242123945226e-51</v>
+        <v>4.376945966447012e-54</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Slc47a2</t>
+          <t>Trpc3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.55368518829346</v>
+        <v>18.31001472473145</v>
       </c>
       <c r="C6" t="n">
-        <v>3.924567699432373</v>
+        <v>5.889199256896973</v>
       </c>
       <c r="D6" t="n">
-        <v>8.21194801780629e-28</v>
+        <v>1.308246644135486e-71</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7053571428571429</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
   </sheetData>
@@ -1841,96 +1842,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Bmx</t>
+          <t>Slc47a1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.23022747039795</v>
+        <v>16.18927574157715</v>
       </c>
       <c r="C2" t="n">
-        <v>6.583659648895264</v>
+        <v>4.450317859649658</v>
       </c>
       <c r="D2" t="n">
-        <v>2.167404543543299e-21</v>
+        <v>1.254710437143614e-54</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6477272727272727</v>
+        <v>0.9910714285714286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Prdm16</t>
+          <t>Tbx15</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.99201393127441</v>
+        <v>10.17861366271973</v>
       </c>
       <c r="C3" t="n">
-        <v>5.714864253997803</v>
+        <v>4.307960510253906</v>
       </c>
       <c r="D3" t="n">
-        <v>9.695835401561911e-25</v>
+        <v>1.475351188655028e-21</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Lama3</t>
+          <t>Tspan11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.807014942169189</v>
+        <v>14.02823543548584</v>
       </c>
       <c r="C4" t="n">
-        <v>4.879610538482666</v>
+        <v>4.153435230255127</v>
       </c>
       <c r="D4" t="n">
-        <v>2.309295247150442e-12</v>
+        <v>2.736063121309078e-41</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5113636363636364</v>
+        <v>0.8482142857142857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Vegfc</t>
+          <t>Slc4a10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.95665168762207</v>
+        <v>15.75197792053223</v>
       </c>
       <c r="C5" t="n">
-        <v>4.575042724609375</v>
+        <v>4.049439907073975</v>
       </c>
       <c r="D5" t="n">
-        <v>1.290465166527557e-24</v>
+        <v>6.956507806217545e-52</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Plcg2</t>
+          <t>Slc47a2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.240133762359619</v>
+        <v>11.57633876800537</v>
       </c>
       <c r="C6" t="n">
-        <v>4.156229972839355</v>
+        <v>3.94968843460083</v>
       </c>
       <c r="D6" t="n">
-        <v>1.419500106413449e-10</v>
+        <v>6.307103822333806e-28</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4886363636363636</v>
+        <v>0.7053571428571429</v>
       </c>
     </row>
   </sheetData>
@@ -1981,13 +1982,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.04056549072266</v>
+        <v>16.13285636901855</v>
       </c>
       <c r="C2" t="n">
-        <v>3.82102632522583</v>
+        <v>3.845197677612305</v>
       </c>
       <c r="D2" t="n">
-        <v>6.954304532635131e-54</v>
+        <v>1.566760433650805e-54</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -2000,13 +2001,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.72438430786133</v>
+        <v>16.78170013427734</v>
       </c>
       <c r="C3" t="n">
-        <v>3.147144317626953</v>
+        <v>3.163457155227661</v>
       </c>
       <c r="D3" t="n">
-        <v>1.819900585483357e-58</v>
+        <v>6.943017663513871e-59</v>
       </c>
       <c r="E3" t="n">
         <v>0.9772727272727273</v>
@@ -2019,13 +2020,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.99912357330322</v>
+        <v>14.05057048797607</v>
       </c>
       <c r="C4" t="n">
-        <v>2.890903949737549</v>
+        <v>2.908675193786621</v>
       </c>
       <c r="D4" t="n">
-        <v>6.596546144391894e-41</v>
+        <v>3.194319174933153e-41</v>
       </c>
       <c r="E4" t="n">
         <v>0.8352272727272727</v>
@@ -2038,13 +2039,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.73181629180908</v>
+        <v>12.76703453063965</v>
       </c>
       <c r="C5" t="n">
-        <v>2.58952808380127</v>
+        <v>2.602757930755615</v>
       </c>
       <c r="D5" t="n">
-        <v>1.175165512314697e-33</v>
+        <v>7.480118312694928e-34</v>
       </c>
       <c r="E5" t="n">
         <v>0.75</v>
@@ -2057,13 +2058,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.13879489898682</v>
+        <v>14.18364715576172</v>
       </c>
       <c r="C6" t="n">
-        <v>2.429940223693848</v>
+        <v>2.439021587371826</v>
       </c>
       <c r="D6" t="n">
-        <v>1.144346518004998e-41</v>
+        <v>6.044269318625661e-42</v>
       </c>
       <c r="E6" t="n">
         <v>0.8920454545454546</v>
@@ -2113,96 +2114,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Dapl1</t>
+          <t>Bmx</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.32056999206543</v>
+        <v>10.23504638671875</v>
       </c>
       <c r="C2" t="n">
-        <v>6.150452136993408</v>
+        <v>6.608002662658691</v>
       </c>
       <c r="D2" t="n">
-        <v>1.099360756724459e-17</v>
+        <v>2.062170293983623e-21</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6527777777777778</v>
+        <v>0.6477272727272727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Cubn</t>
+          <t>Prdm16</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.320733070373535</v>
+        <v>10.99948310852051</v>
       </c>
       <c r="C3" t="n">
-        <v>6.141708850860596</v>
+        <v>5.73930025100708</v>
       </c>
       <c r="D3" t="n">
-        <v>5.374078105604812e-14</v>
+        <v>8.925358263575392e-25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Prg4</t>
+          <t>Lama3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.0223217010498</v>
+        <v>7.815247058868408</v>
       </c>
       <c r="C4" t="n">
-        <v>5.970844745635986</v>
+        <v>4.904033184051514</v>
       </c>
       <c r="D4" t="n">
-        <v>9.546638381591512e-35</v>
+        <v>2.204871793142434e-12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.5113636363636364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Slc7a14</t>
+          <t>Vegfc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.87525177001953</v>
+        <v>10.94721031188965</v>
       </c>
       <c r="C5" t="n">
-        <v>4.861955165863037</v>
+        <v>4.55402660369873</v>
       </c>
       <c r="D5" t="n">
-        <v>4.322103320937876e-34</v>
+        <v>1.432260703817273e-24</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9305555555555556</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Plcg2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.26927471160889</v>
+        <v>7.238114833831787</v>
       </c>
       <c r="C6" t="n">
-        <v>4.691474914550781</v>
+        <v>4.15699291229248</v>
       </c>
       <c r="D6" t="n">
-        <v>6.48264666273588e-26</v>
+        <v>1.440790354687923e-10</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8194444444444444</v>
+        <v>0.4886363636363636</v>
       </c>
     </row>
   </sheetData>
@@ -2249,96 +2250,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Pi16</t>
+          <t>Dapl1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.448329448699951</v>
+        <v>9.325041770935059</v>
       </c>
       <c r="C2" t="n">
-        <v>5.736920833587646</v>
+        <v>6.174651622772217</v>
       </c>
       <c r="D2" t="n">
-        <v>1.234852970081388e-10</v>
+        <v>1.053977920538218e-17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6527777777777778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Nox4</t>
+          <t>Cubn</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.005513668060303</v>
+        <v>8.324864387512207</v>
       </c>
       <c r="C3" t="n">
-        <v>4.93771505355835</v>
+        <v>6.16588830947876</v>
       </c>
       <c r="D3" t="n">
-        <v>3.02550089110723e-09</v>
+        <v>5.189908223154612e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Col14a1</t>
+          <t>Prg4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.980396270751953</v>
+        <v>13.02622699737549</v>
       </c>
       <c r="C4" t="n">
-        <v>4.911049365997314</v>
+        <v>5.98261547088623</v>
       </c>
       <c r="D4" t="n">
-        <v>1.32927822666493e-06</v>
+        <v>9.07043299211441e-35</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fndc1</t>
+          <t>Slc7a14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.157187461853027</v>
+        <v>12.88145637512207</v>
       </c>
       <c r="C5" t="n">
-        <v>4.679196357727051</v>
+        <v>4.871819496154785</v>
       </c>
       <c r="D5" t="n">
-        <v>1.032049296417713e-12</v>
+        <v>3.988245121658817e-34</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6851851851851852</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Rspo2</t>
+          <t>Dpp4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.989799499511719</v>
+        <v>11.27961158752441</v>
       </c>
       <c r="C6" t="n">
-        <v>4.667633056640625</v>
+        <v>4.709115982055664</v>
       </c>
       <c r="D6" t="n">
-        <v>1.291557450007012e-06</v>
+        <v>5.764310105693933e-26</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -2385,96 +2386,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Myh11</t>
+          <t>Pi16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.01858234405518</v>
+        <v>7.446139335632324</v>
       </c>
       <c r="C2" t="n">
-        <v>7.97446346282959</v>
+        <v>5.72364616394043</v>
       </c>
       <c r="D2" t="n">
-        <v>2.63982613535229e-19</v>
+        <v>1.339212783972267e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Myom1</t>
+          <t>Nox4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.755067825317383</v>
+        <v>7.003499031066895</v>
       </c>
       <c r="C3" t="n">
-        <v>7.474307537078857</v>
+        <v>4.927291393280029</v>
       </c>
       <c r="D3" t="n">
-        <v>4.27118907246741e-15</v>
+        <v>3.06934761341701e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.5925925925925926</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Jph2</t>
+          <t>Col14a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.826090335845947</v>
+        <v>5.971248626708984</v>
       </c>
       <c r="C4" t="n">
-        <v>7.455090522766113</v>
+        <v>4.874123096466064</v>
       </c>
       <c r="D4" t="n">
-        <v>5.526723687872772e-09</v>
+        <v>1.366950806119628e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Acta2</t>
+          <t>Rspo2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.754861831665039</v>
+        <v>5.993216991424561</v>
       </c>
       <c r="C5" t="n">
-        <v>7.235536098480225</v>
+        <v>4.676848888397217</v>
       </c>
       <c r="D5" t="n">
-        <v>4.27118907246741e-15</v>
+        <v>1.264694910126828e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Pdlim3</t>
+          <t>Fndc1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.104136943817139</v>
+        <v>8.145654678344727</v>
       </c>
       <c r="C6" t="n">
-        <v>7.157766819000244</v>
+        <v>4.639036655426025</v>
       </c>
       <c r="D6" t="n">
-        <v>8.268520720587068e-05</v>
+        <v>1.314102389259921e-12</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.6851851851851852</v>
       </c>
     </row>
   </sheetData>
@@ -2521,96 +2522,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Mamdc2</t>
+          <t>Myh11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.577197074890137</v>
+        <v>10.01942920684814</v>
       </c>
       <c r="C2" t="n">
-        <v>6.048963069915771</v>
+        <v>7.972146034240723</v>
       </c>
       <c r="D2" t="n">
-        <v>3.929787574174587e-05</v>
+        <v>2.617308693373026e-19</v>
       </c>
       <c r="E2" t="n">
-        <v>0.525</v>
+        <v>0.8367346938775511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Abca8a</t>
+          <t>Myom1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.604628562927246</v>
+        <v>8.75755786895752</v>
       </c>
       <c r="C3" t="n">
-        <v>4.585538387298584</v>
+        <v>7.498341083526611</v>
       </c>
       <c r="D3" t="n">
-        <v>2.985951575848039e-10</v>
+        <v>4.177770775091542e-15</v>
       </c>
       <c r="E3" t="n">
-        <v>0.75</v>
+        <v>0.7346938775510204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ror2</t>
+          <t>Jph2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.339718341827393</v>
+        <v>6.825936794281006</v>
       </c>
       <c r="C4" t="n">
-        <v>4.269865036010742</v>
+        <v>7.424873828887939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001216062052437567</v>
+        <v>5.532637324770845e-09</v>
       </c>
       <c r="E4" t="n">
-        <v>0.525</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Matn2</t>
+          <t>Acta2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.998796463012695</v>
+        <v>8.757355690002441</v>
       </c>
       <c r="C5" t="n">
-        <v>3.729873657226562</v>
+        <v>7.259573459625244</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0005480742446392809</v>
+        <v>4.177770775091542e-15</v>
       </c>
       <c r="E5" t="n">
-        <v>0.525</v>
+        <v>0.7346938775510204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Col15a1</t>
+          <t>Pdlim3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.021059989929199</v>
+        <v>5.10563850402832</v>
       </c>
       <c r="C6" t="n">
-        <v>3.624528169631958</v>
+        <v>7.181741237640381</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005114482516798062</v>
+        <v>8.203125049311062e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.525</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
   </sheetData>
@@ -2657,17 +2658,153 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>Mamdc2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.573925495147705</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.955446720123291</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.004350585996364e-05</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Abca8a</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7.57810115814209</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.506396770477295</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.899682339671256e-10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ror2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.245718955993652</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.943387508392334</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0001913969031223089</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Matn2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.97784948348999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.685840368270874</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0006108274222381618</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Vit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.98298978805542</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.521341562271118</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0006108274222381618</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>logfoldchange</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pvals_adj</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
           <t>Col25a1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.62878608703613</v>
+        <v>27.66134834289551</v>
       </c>
       <c r="C2" t="n">
-        <v>5.865596771240234</v>
+        <v>5.878852367401123</v>
       </c>
       <c r="D2" t="n">
-        <v>3.497402083336059e-164</v>
+        <v>1.420048829910439e-164</v>
       </c>
       <c r="E2" t="n">
         <v>0.936231884057971</v>
@@ -2680,13 +2817,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.89524078369141</v>
+        <v>24.93132591247559</v>
       </c>
       <c r="C3" t="n">
-        <v>5.575868129730225</v>
+        <v>5.602328300476074</v>
       </c>
       <c r="D3" t="n">
-        <v>1.591822845333684e-133</v>
+        <v>6.469061535497088e-134</v>
       </c>
       <c r="E3" t="n">
         <v>0.8405797101449275</v>
@@ -2699,13 +2836,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.20289611816406</v>
+        <v>28.25019264221191</v>
       </c>
       <c r="C4" t="n">
-        <v>5.498301982879639</v>
+        <v>5.521671772003174</v>
       </c>
       <c r="D4" t="n">
-        <v>5.631096640815984e-171</v>
+        <v>1.479414945501835e-171</v>
       </c>
       <c r="E4" t="n">
         <v>0.9652173913043478</v>
@@ -2718,13 +2855,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.49537086486816</v>
+        <v>29.53586769104004</v>
       </c>
       <c r="C5" t="n">
-        <v>5.082905292510986</v>
+        <v>5.095089912414551</v>
       </c>
       <c r="D5" t="n">
-        <v>6.898620940522358e-187</v>
+        <v>2.084818107050819e-187</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -2737,13 +2874,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.39566993713379</v>
+        <v>18.4282341003418</v>
       </c>
       <c r="C6" t="n">
-        <v>4.761241436004639</v>
+        <v>4.78768253326416</v>
       </c>
       <c r="D6" t="n">
-        <v>7.826452956078785e-73</v>
+        <v>4.179497075278108e-73</v>
       </c>
       <c r="E6" t="n">
         <v>0.6318840579710145</v>
@@ -2793,96 +2930,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Gna14</t>
+          <t>Kng2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.490413665771484</v>
+        <v>5.80870246887207</v>
       </c>
       <c r="C2" t="n">
-        <v>5.175975799560547</v>
+        <v>5.077123641967773</v>
       </c>
       <c r="D2" t="n">
-        <v>4.948271625567119e-11</v>
+        <v>3.655288638893611e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.5106382978723404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Itgb4</t>
+          <t>Ror2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.614237308502197</v>
+        <v>7.551877021789551</v>
       </c>
       <c r="C3" t="n">
-        <v>4.930605411529541</v>
+        <v>4.477007865905762</v>
       </c>
       <c r="D3" t="n">
-        <v>2.122162777746862e-11</v>
+        <v>1.281019797189107e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5119047619047619</v>
+        <v>0.6808510638297872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ptch1</t>
+          <t>Col15a1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.85699939727783</v>
+        <v>6.307950973510742</v>
       </c>
       <c r="C4" t="n">
-        <v>4.794204235076904</v>
+        <v>3.963915824890137</v>
       </c>
       <c r="D4" t="n">
-        <v>8.274353565285425e-29</v>
+        <v>2.686286182163059e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.5957446808510638</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Ror2</t>
+          <t>Fap</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.829337120056152</v>
+        <v>6.08295202255249</v>
       </c>
       <c r="C5" t="n">
-        <v>4.59368896484375</v>
+        <v>3.795554637908936</v>
       </c>
       <c r="D5" t="n">
-        <v>4.818979054225385e-09</v>
+        <v>8.503793454222606e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.574468085106383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Ngf</t>
+          <t>Runx1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.238821506500244</v>
+        <v>6.502959251403809</v>
       </c>
       <c r="C6" t="n">
-        <v>4.402055263519287</v>
+        <v>3.742849588394165</v>
       </c>
       <c r="D6" t="n">
-        <v>1.960601725965719e-07</v>
+        <v>8.663468150463155e-08</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.6170212765957447</v>
       </c>
     </row>
   </sheetData>
@@ -2929,96 +3066,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Slco1a4</t>
+          <t>Gna14</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.875215530395508</v>
+        <v>7.494328498840332</v>
       </c>
       <c r="C2" t="n">
-        <v>2.474648714065552</v>
+        <v>5.183976650238037</v>
       </c>
       <c r="D2" t="n">
-        <v>9.117813020227405e-16</v>
+        <v>4.802803053179267e-11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6782608695652174</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Adgrl4</t>
+          <t>Itgb4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.806303024291992</v>
+        <v>7.620411396026611</v>
       </c>
       <c r="C3" t="n">
-        <v>2.178121089935303</v>
+        <v>4.948183059692383</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0562483044416e-09</v>
+        <v>1.957481677328529e-11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5304347826086957</v>
+        <v>0.5119047619047619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Tmtc2</t>
+          <t>Ptch1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.711513519287109</v>
+        <v>11.85065174102783</v>
       </c>
       <c r="C4" t="n">
-        <v>2.177638053894043</v>
+        <v>4.775169849395752</v>
       </c>
       <c r="D4" t="n">
-        <v>3.298447781940992e-15</v>
+        <v>8.925673634738105e-29</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7217391304347827</v>
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Lef1</t>
+          <t>Ngf</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.29033088684082</v>
+        <v>6.237327098846436</v>
       </c>
       <c r="C5" t="n">
-        <v>1.778864622116089</v>
+        <v>4.402282238006592</v>
       </c>
       <c r="D5" t="n">
-        <v>1.501126467489123e-05</v>
+        <v>1.938181495973892e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4608695652173913</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Mecom</t>
+          <t>Ebf2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.484766006469727</v>
+        <v>12.3071985244751</v>
       </c>
       <c r="C6" t="n">
-        <v>1.693673968315125</v>
+        <v>4.357966423034668</v>
       </c>
       <c r="D6" t="n">
-        <v>2.211269249803807e-08</v>
+        <v>4.329094981017548e-31</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6173913043478261</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
   </sheetData>
@@ -3065,96 +3202,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Trpm3</t>
+          <t>Slco1a4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.779182910919189</v>
+        <v>8.931571960449219</v>
       </c>
       <c r="C2" t="n">
-        <v>1.529390335083008</v>
+        <v>2.50103759765625</v>
       </c>
       <c r="D2" t="n">
-        <v>1.386959739364907e-11</v>
+        <v>5.486477100989304e-16</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.6782608695652174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Gria3</t>
+          <t>Adgrl4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.671704769134521</v>
+        <v>6.849327564239502</v>
       </c>
       <c r="C3" t="n">
-        <v>1.034439444541931</v>
+        <v>2.203131437301636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01494315859543167</v>
+        <v>2.349714339750008e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>0.412</v>
+        <v>0.5304347826086957</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Kirrel3</t>
+          <t>Tmtc2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.166383743286133</v>
+        <v>8.723294258117676</v>
       </c>
       <c r="C4" t="n">
-        <v>1.022570729255676</v>
+        <v>2.179532766342163</v>
       </c>
       <c r="D4" t="n">
-        <v>3.744463719150587e-07</v>
+        <v>2.97259115242356e-15</v>
       </c>
       <c r="E4" t="n">
-        <v>0.616</v>
+        <v>0.7217391304347827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Lsamp</t>
+          <t>Lef1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.37631225585938</v>
+        <v>5.322223663330078</v>
       </c>
       <c r="C5" t="n">
-        <v>1.009693264961243</v>
+        <v>1.79841685295105</v>
       </c>
       <c r="D5" t="n">
-        <v>6.64264468629132e-21</v>
+        <v>1.245630520566503e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.948</v>
+        <v>0.4608695652173913</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Kcnip4</t>
+          <t>Mecom</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.977498054504395</v>
+        <v>6.548807621002197</v>
       </c>
       <c r="C6" t="n">
-        <v>1.004489064216614</v>
+        <v>1.718349933624268</v>
       </c>
       <c r="D6" t="n">
-        <v>1.929815171822594e-15</v>
+        <v>1.478321622020316e-08</v>
       </c>
       <c r="E6" t="n">
-        <v>0.872</v>
+        <v>0.6173913043478261</v>
       </c>
     </row>
   </sheetData>
@@ -3201,96 +3338,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Sorbs2</t>
+          <t>Trpm3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.936442852020264</v>
+        <v>7.941797733306885</v>
       </c>
       <c r="C2" t="n">
-        <v>1.827330708503723</v>
+        <v>1.55545437335968</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01781934546965527</v>
+        <v>4.302185164371978e-12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6875</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Frmd5</t>
+          <t>Gria3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.669758319854736</v>
+        <v>3.638855218887329</v>
       </c>
       <c r="C3" t="n">
-        <v>1.795558094978333</v>
+        <v>1.027507901191711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00131308051656787</v>
+        <v>0.01621328852190851</v>
       </c>
       <c r="E3" t="n">
-        <v>0.78125</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Ptprg</t>
+          <t>Kirrel3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.34119987487793</v>
+        <v>6.181618690490723</v>
       </c>
       <c r="C4" t="n">
-        <v>1.494223952293396</v>
+        <v>1.027142882347107</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004292482000243238</v>
+        <v>3.489781664528542e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>0.84375</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cmss1</t>
+          <t>Lsamp</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.107530117034912</v>
+        <v>10.45835208892822</v>
       </c>
       <c r="C5" t="n">
-        <v>1.422393918037415</v>
+        <v>1.014389038085938</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01044821695092537</v>
+        <v>2.80427248342351e-21</v>
       </c>
       <c r="E5" t="n">
-        <v>0.78125</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Gphn</t>
+          <t>Kcnip4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.34624195098877</v>
+        <v>9.061214447021484</v>
       </c>
       <c r="C6" t="n">
-        <v>1.333612442016602</v>
+        <v>1.01419723033905</v>
       </c>
       <c r="D6" t="n">
-        <v>8.140652875858649e-05</v>
+        <v>8.987870401271418e-16</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9375</v>
+        <v>0.872</v>
       </c>
     </row>
   </sheetData>
@@ -3337,96 +3474,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Myo1f</t>
+          <t>Sorbs2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.497606754302979</v>
+        <v>3.952133893966675</v>
       </c>
       <c r="C2" t="n">
-        <v>5.132003307342529</v>
+        <v>1.837750554084778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02872742462848472</v>
+        <v>0.01669007168730177</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Runx1</t>
+          <t>Frmd5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.54682445526123</v>
+        <v>4.689383983612061</v>
       </c>
       <c r="C3" t="n">
-        <v>4.215267181396484</v>
+        <v>1.806409597396851</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02845746576392087</v>
+        <v>0.001218610989820288</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Dock2</t>
+          <t>Ptprg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.848105907440186</v>
+        <v>4.364767551422119</v>
       </c>
       <c r="C4" t="n">
-        <v>3.842652559280396</v>
+        <v>1.501955509185791</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009371752351063327</v>
+        <v>0.003854808305210897</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Cmss1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.832962036132812</v>
+        <v>4.111031055450439</v>
       </c>
       <c r="C5" t="n">
-        <v>2.961454391479492</v>
+        <v>1.425633549690247</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009371752351063327</v>
+        <v>0.01032445316996816</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Ppm1h</t>
+          <t>Gphn</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.318958282470703</v>
+        <v>5.368399620056152</v>
       </c>
       <c r="C6" t="n">
-        <v>2.536372184753418</v>
+        <v>1.34140157699585</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002181290690704287</v>
+        <v>7.547003105690138e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.9375</v>
       </c>
     </row>
   </sheetData>
@@ -3473,96 +3610,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Trpm3</t>
+          <t>Myo1f</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.6920051574707</v>
+        <v>4.497880935668945</v>
       </c>
       <c r="C2" t="n">
-        <v>4.495234489440918</v>
+        <v>5.143640518188477</v>
       </c>
       <c r="D2" t="n">
-        <v>9.11114628472371e-120</v>
+        <v>0.02917021281497099</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.5652173913043478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Slc6a20b</t>
+          <t>Runx1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.03287315368652</v>
+        <v>4.4943528175354</v>
       </c>
       <c r="C3" t="n">
-        <v>4.191911220550537</v>
+        <v>4.030216693878174</v>
       </c>
       <c r="D3" t="n">
-        <v>7.127417842484242e-31</v>
+        <v>0.02917021281497099</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4862745098039216</v>
+        <v>0.6086956521739131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Slc22a6</t>
+          <t>Dock2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.52751541137695</v>
+        <v>4.844241142272949</v>
       </c>
       <c r="C4" t="n">
-        <v>4.108908176422119</v>
+        <v>3.837376117706299</v>
       </c>
       <c r="D4" t="n">
-        <v>1.296563042402305e-23</v>
+        <v>0.009468772853870851</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4196078431372549</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Ranbp3l</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.50762557983398</v>
+        <v>4.830912113189697</v>
       </c>
       <c r="C5" t="n">
-        <v>3.986784696578979</v>
+        <v>2.961606502532959</v>
       </c>
       <c r="D5" t="n">
-        <v>3.56197893586852e-118</v>
+        <v>0.009468772853870851</v>
       </c>
       <c r="E5" t="n">
-        <v>0.996078431372549</v>
+        <v>0.7391304347826086</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Ppp1r1a</t>
+          <t>Ppm1h</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.13161945343018</v>
+        <v>5.311151504516602</v>
       </c>
       <c r="C6" t="n">
-        <v>3.91607141494751</v>
+        <v>2.529474020004272</v>
       </c>
       <c r="D6" t="n">
-        <v>6.346228940795005e-49</v>
+        <v>0.002276845349212989</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6196078431372549</v>
+        <v>0.8260869565217391</v>
       </c>
     </row>
   </sheetData>
@@ -3609,96 +3746,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Slco1c1</t>
+          <t>Trpm3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.92189788818359</v>
+        <v>23.75129508972168</v>
       </c>
       <c r="C2" t="n">
-        <v>4.85829496383667</v>
+        <v>4.517788410186768</v>
       </c>
       <c r="D2" t="n">
-        <v>4.632148586913591e-61</v>
+        <v>2.226779464725495e-120</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6829268292682927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Slco1a4</t>
+          <t>Slc6a20b</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.79654884338379</v>
+        <v>12.0497932434082</v>
       </c>
       <c r="C3" t="n">
-        <v>4.379551887512207</v>
+        <v>4.208441734313965</v>
       </c>
       <c r="D3" t="n">
-        <v>5.184630602902785e-111</v>
+        <v>5.80560553034994e-31</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9471544715447154</v>
+        <v>0.4862745098039216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Slc7a5</t>
+          <t>Slc22a6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.6133279800415</v>
+        <v>10.5455379486084</v>
       </c>
       <c r="C4" t="n">
-        <v>4.05585765838623</v>
+        <v>4.13446569442749</v>
       </c>
       <c r="D4" t="n">
-        <v>5.047062110616776e-24</v>
+        <v>1.080905743440972e-23</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.4196078431372549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Nostrin</t>
+          <t>Ranbp3l</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.849343299865723</v>
+        <v>23.54644966125488</v>
       </c>
       <c r="C5" t="n">
-        <v>3.97758412361145</v>
+        <v>4.001011848449707</v>
       </c>
       <c r="D5" t="n">
-        <v>1.109253184322774e-20</v>
+        <v>1.426502566690761e-118</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4105691056910569</v>
+        <v>0.996078431372549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Prom1</t>
+          <t>Ppp1r1a</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.3766975402832</v>
+        <v>15.15339756011963</v>
       </c>
       <c r="C6" t="n">
-        <v>3.919621706008911</v>
+        <v>3.930273532867432</v>
       </c>
       <c r="D6" t="n">
-        <v>5.854767008967227e-23</v>
+        <v>4.422983715300374e-49</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4308943089430894</v>
+        <v>0.6196078431372549</v>
       </c>
     </row>
   </sheetData>

--- a/src/excels/meningeal/updates/top_genes_cluster_0.4.xlsx
+++ b/src/excels/meningeal/updates/top_genes_cluster_0.4.xlsx
@@ -8,29 +8,29 @@
   </bookViews>
   <sheets>
     <sheet name="MeV.Endothelial.0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MeV.1.4.11" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MeV.1.4.12" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MeV.1.4.13" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MeV.Endothelial.3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MeV.1.4.2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="MeV.Fib.0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MeV.Fib.4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MeV.Fib.6" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MeV.Endothelial.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MeV.Fib_Unknown.8" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="MeV.Endothelial_Injury.4" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="MeV.Immune_doublets.0" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="MeV.1.4.4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MeV.Fib.1" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="MeV.Endothelial.2" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="MeV.1.4.6" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="MeV.1.4.7" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="MeV.Fib.3" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="MeV.Fib.2" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="MeV.Low_Quality.0" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="MeV.2.1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MeV.2.8" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="MeV.3.17" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MeV.ECM.1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MeV.ECM.2" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="MeV.ECM.0" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="MeV.Proliferative_Fibr.0" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="MeV.Pericytes.0" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="MeV.VLMC.1" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="MeV.Endothelial.1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="MeV.Endothelial.3" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="MeV.Epithelial_ECad.0" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="MeV.Fib_CD34.0" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="MeV.Fib_CD34.7" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="MeV.SMC.0" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="MeV.4.34" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="MeV.Fib.5" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="MeV.VLMC.0" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
